--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\parser.loc\update_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>available</t>
   </si>
@@ -204,6 +204,39 @@
   </si>
   <si>
     <t>shnurki_i_gaytany</t>
+  </si>
+  <si>
+    <t>Образки святых</t>
+  </si>
+  <si>
+    <t>obrazki_svyatix</t>
+  </si>
+  <si>
+    <t>Образки Владимирской Божьей Матери</t>
+  </si>
+  <si>
+    <t>obrazki_vladimirskoi_boghyey_materi</t>
+  </si>
+  <si>
+    <t>Образки Георгий Победоносец</t>
+  </si>
+  <si>
+    <t>obrazki_georgii_pobedonosec</t>
+  </si>
+  <si>
+    <t>Бусины подвески</t>
+  </si>
+  <si>
+    <t>busini_podveski</t>
+  </si>
+  <si>
+    <t>meta_keywords</t>
+  </si>
+  <si>
+    <t>meta_description</t>
+  </si>
+  <si>
+    <t>meta_title</t>
   </si>
 </sst>
 </file>
@@ -537,23 +570,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="28.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -566,8 +602,17 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -580,8 +625,20 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="str">
+        <f>LOWER(B2)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
+        <v>браслеты с молитвой из бусин, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>"Купить недорогие "&amp;LOWER(B2)&amp;" в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ"</f>
+        <v>Купить недорогие браслеты с молитвой из бусин в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>B2&amp;" в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ"</f>
+        <v>Браслеты с молитвой из бусин в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -594,8 +651,20 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E46" si="0">LOWER(B3)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
+        <v>православные браслеты на нитке, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F46" si="1">"Купить недорогие "&amp;LOWER(B3)&amp;" в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ"</f>
+        <v>Купить недорогие православные браслеты на нитке в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G46" si="2">B3&amp;" в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ"</f>
+        <v>Православные браслеты на нитке в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -608,8 +677,20 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные браслеты на руку, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные браслеты на руку в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные браслеты на руку в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -622,8 +703,20 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные бусины, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные бусины в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные бусины в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -636,8 +729,20 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные иконы с молитвой, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные иконы с молитвой в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные иконы с молитвой в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -650,8 +755,20 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>охранные кольца, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие охранные кольца в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Охранные кольца в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -664,8 +781,20 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>голгофские крестики, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие голгофские крестики в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Голгофские крестики в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -678,8 +807,20 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные нательные крестики, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные нательные крестики в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные нательные крестики в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -692,8 +833,20 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные ладанки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные ладанки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные ладанки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -706,8 +859,20 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные ложки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные ложки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные ложки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -720,22 +885,46 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>мощевики и складни на шею, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие мощевики и складни на шею в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Мощевики и складни на шею в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки святых, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки святых в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки святых в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -748,8 +937,20 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки божьей матери, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки божьей матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Божьей Матери в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -762,8 +963,20 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки казанской божьей матери, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки казанской божьей матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Казанской Божьей Матери в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -776,8 +989,20 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки матроны, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки матроны в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Матроны в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -790,8 +1015,20 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки михаил архангел, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки михаил архангел в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Михаил Архангел в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -804,8 +1041,20 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные образки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные образки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные образки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -818,8 +1067,20 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>мужские православные четки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие мужские православные четки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Мужские православные четки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -832,8 +1093,20 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные серьги, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные серьги в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные серьги в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -846,8 +1119,20 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные цепи, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные цепи в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные цепи в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -860,9 +1145,645 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>шнурки и гайтаны, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие шнурки и гайтаны в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Шнурки и гайтаны в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>браслеты с молитвой из бусин, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие браслеты с молитвой из бусин в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Браслеты с молитвой из бусин в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные браслеты на нитке, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные браслеты на нитке в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные браслеты на нитке в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные браслеты на руку, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные браслеты на руку в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные браслеты на руку в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные бусины, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные бусины в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные бусины в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные иконы с молитвой, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные иконы с молитвой в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные иконы с молитвой в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>охранные кольца, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие охранные кольца в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Охранные кольца в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>голгофские крестики, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие голгофские крестики в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Голгофские крестики в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные нательные крестики, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные нательные крестики в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные нательные крестики в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные ладанки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные ладанки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные ладанки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные ложки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные ложки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные ложки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>мощевики и складни на шею, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие мощевики и складни на шею в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Мощевики и складни на шею в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>именные образки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие именные образки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Именные образки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки божьей матери, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки божьей матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Божьей Матери в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки казанской божьей матери, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки казанской божьей матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Казанской Божьей Матери в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки матроны, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки матроны в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Матроны в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки михаил архангел, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки михаил архангел в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Михаил Архангел в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные образки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные образки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные образки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>мужские православные четки, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие мужские православные четки в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Мужские православные четки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные серьги, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные серьги в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные серьги в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>православные цепи, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие православные цепи в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Православные цепи в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>шнурки и гайтаны, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие шнурки и гайтаны в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Шнурки и гайтаны в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки владимирской божьей матери, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки владимирской божьей матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Владимирской Божьей Матери в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>образки георгий победоносец, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие образки георгий победоносец в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Образки Георгий Победоносец в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>бусины подвески, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Купить недорогие бусины подвески в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Бусины подвески в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:G46"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист2'!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -415,28 +420,26 @@
   </si>
   <si>
     <t>pravoslavnye-businy-anastasiya</t>
+  </si>
+  <si>
+    <t>православные бусины, освещенные, Анастасия</t>
+  </si>
+  <si>
+    <t>Купить по хорошей цене православные бусины в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Православные бусины Анастасия, выполненые по всем православным канонам, будут отличным подарком дорогому для вас человеку. Заказать с доставкой на сайте или по телефону +7(495)203-96-96.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -447,37 +450,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -767,30 +779,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr filterMode="1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="true" style="2"/>
-    <col min="2" max="2" width="20.85546875" customWidth="true" style="2"/>
-    <col min="3" max="3" width="38.42578125" customWidth="true" style="2"/>
-    <col min="4" max="4" width="34.28515625" customWidth="true" style="2"/>
-    <col min="5" max="5" width="11.28515625" customWidth="true" style="2"/>
-    <col min="6" max="6" width="28.7109375" customWidth="true" style="2"/>
-    <col min="7" max="7" width="55.28515625" customWidth="true" style="2"/>
-    <col min="8" max="8" width="12.5703125" customWidth="true" style="2"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -842,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -868,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -894,605 +903,608 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:H26"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:H26">
+    <sortState ref="A2:H27">
+      <sortCondition ref="A1:A26"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Лист2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$I$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Кресты</t>
   </si>
   <si>
-    <t>Голгофские крестики</t>
-  </si>
-  <si>
     <t>golgofskie-krestiki</t>
   </si>
   <si>
@@ -249,30 +246,12 @@
     <t>Именные образки в интернет-магазине православных ювелирных изделий ВЕЧЕРИЯ</t>
   </si>
   <si>
-    <t>Образки Божьей Матери</t>
-  </si>
-  <si>
     <t>obrazki-bozhey-materi</t>
   </si>
   <si>
-    <t>образки божьей матери, интернет-магазин, купить, недорого, доставка, Москва</t>
-  </si>
-  <si>
-    <t>Купить недорогие образки Божьей матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Изделия ручной работы из серебра и позолоты, освященные. Отличный подарок своим близким. Заказать у нас на сайте или по телефону +7(495)203-96-96.</t>
-  </si>
-  <si>
-    <t>Образки Владимирской Божьей Матери</t>
-  </si>
-  <si>
     <t>obrazki-vladimirskoy-bozhey-materi</t>
   </si>
   <si>
-    <t>образки владимирской божьей матери, интернет-магазин, купить, недорого, доставка, Москва</t>
-  </si>
-  <si>
-    <t>Купить недорого образки Владимирской Божьей матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. На обратной стороне изделия есть молитва. Изготовлены из серебра и позолоты, освященные. Заказать можно на нашем сайте или по телефону +7(495)203-96-96.</t>
-  </si>
-  <si>
     <t>Образки Георгий Победоносец</t>
   </si>
   <si>
@@ -285,19 +264,7 @@
     <t>Купить недорогие образки Георгий Победоносец в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Хороший выбор изделий из серебра и позолоты. Быстрая доставка по Москве и всей России. Оформить заказ у нас на сайте или по телефону +7(495)203-96-96.</t>
   </si>
   <si>
-    <t>Образки Казанской Божьей Матери</t>
-  </si>
-  <si>
     <t>obrazki-kazanskoy-bozhey-materi</t>
-  </si>
-  <si>
-    <t>образки казанской божьей матери, интернет-магазин, купить, недорого, доставка, Москва</t>
-  </si>
-  <si>
-    <t>Купить недорогие образки Казанской Божьей матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Это один из самых популярных образов. Все изделия ручной работы, выполнены из серебра и позолоты. Купить с доставкой по Москве и России можно у нас на сайте и по телефону +7(495)203-96-96.</t>
-  </si>
-  <si>
-    <t>Образки Матроны</t>
   </si>
   <si>
     <t>obrazki-matrony</t>
@@ -426,6 +393,51 @@
   </si>
   <si>
     <t>Купить по хорошей цене православные бусины в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Православные бусины Анастасия, выполненые по всем православным канонам, будут отличным подарком дорогому для вас человеку. Заказать с доставкой на сайте или по телефону +7(495)203-96-96.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Голгофские нательные крестики</t>
+  </si>
+  <si>
+    <t>В данном разделе представлены наборные бусины, выполненные художественными мастерскими в православной тематике. Данные бусины могут быть использованы под наручный &lt;a href="https://vecheria.ru/catalog/pravoslavnye-braslety-na-ruku/reguliruemyy-kozhanyy-braslet-dlya-busin-105.035-b"&gt;Регулируемый кожаный браслет для бусин&lt;/a&gt;. Создайте свой, непохожий на других, индивидуальный набор из православных бусин, выполненных из благородных металлов (серебро, позолота) с использованием горячей эмали.</t>
+  </si>
+  <si>
+    <t>В данном разделе представлены самые символичные церковные изделия из всех видов &lt;a href=" https://vecheria.ru/catalog/pravoslavnye-natelnye-krestiki"&gt; Православных нательных крестов&lt;/a&gt; – Голгофские нательные крестики. Крестики выполнены из серебра 925 пробы по всем православным канонам и освящены. Многие из них представлены в позолоте 999.</t>
+  </si>
+  <si>
+    <t>образки казанской Божией матери, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>образки владимирской Божией матери, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Купить недорогие образки Божией матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Изделия ручной работы из серебра и позолоты, освященные. Отличный подарок своим близким. Заказать у нас на сайте или по телефону +7(495)203-96-96.</t>
+  </si>
+  <si>
+    <t>Купить недорогие образки Казанской Божией матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Это один из самых популярных образов. Все изделия ручной работы, выполнены из серебра и позолоты. Купить с доставкой по Москве и России можно у нас на сайте и по телефону +7(495)203-96-96.</t>
+  </si>
+  <si>
+    <t>Купить недорого образки Владимирской Божией матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. На обратной стороне изделия есть молитва. Изготовлены из серебра и позолоты, освященные. Заказать можно на нашем сайте или по телефону +7(495)203-96-96.</t>
+  </si>
+  <si>
+    <t>Образки Божией Матери</t>
+  </si>
+  <si>
+    <t>Образки Казанской Божией Матери</t>
+  </si>
+  <si>
+    <t>Образки Владимирской Божией Матери</t>
+  </si>
+  <si>
+    <t>образки Божией матери, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>В данном разделе представлены именные нательные иконы (образки). По имени на образке изображается образ святого покровителя. Все православные образки являются продуктом ручной работы, выполнены по всем православным канонам и освящены. В изготовлении &lt;a href=" https://vecheria.ru/catalog/pravoslavnye-obrazki"&gt;Православных образков&lt;/a&gt; применяются различные материалы, наиболее популярные из них: серебро 925 и позолота 999. Не менее популярными нательными образками являются &lt;a href=" https://vecheria.ru/catalog/obrazki-bozhey-materi"&gt;Образки Божией Матери&lt;/a&gt;, представленные в различных чудотворных ликах.</t>
+  </si>
+  <si>
+    <t>Образки Матроны Московской</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -476,6 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -783,7 +796,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,10 +809,11 @@
     <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="55.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,8 +838,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -851,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -877,7 +894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -903,7 +920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -955,7 +975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -981,7 +1001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -989,25 +1009,28 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1015,204 +1038,207 @@
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,25 +1246,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,25 +1272,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1272,25 +1298,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1298,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1324,25 +1350,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,25 +1376,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1379,19 +1405,22 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,25 +1428,25 @@
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1425,25 +1454,25 @@
         <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,25 +1480,25 @@
         <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1500,11 +1529,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:H26">
-    <sortState ref="A2:H27">
-      <sortCondition ref="A1:A26"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
@@ -17,23 +12,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$I$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
   <si>
     <t>category</t>
   </si>
   <si>
     <t>subcategory</t>
-  </si>
-  <si>
-    <t>plug</t>
   </si>
   <si>
     <t>available</t>
@@ -404,9 +393,6 @@
     <t>В данном разделе представлены наборные бусины, выполненные художественными мастерскими в православной тематике. Данные бусины могут быть использованы под наручный &lt;a href="https://vecheria.ru/catalog/pravoslavnye-braslety-na-ruku/reguliruemyy-kozhanyy-braslet-dlya-busin-105.035-b"&gt;Регулируемый кожаный браслет для бусин&lt;/a&gt;. Создайте свой, непохожий на других, индивидуальный набор из православных бусин, выполненных из благородных металлов (серебро, позолота) с использованием горячей эмали.</t>
   </si>
   <si>
-    <t>В данном разделе представлены самые символичные церковные изделия из всех видов &lt;a href=" https://vecheria.ru/catalog/pravoslavnye-natelnye-krestiki"&gt; Православных нательных крестов&lt;/a&gt; – Голгофские нательные крестики. Крестики выполнены из серебра 925 пробы по всем православным канонам и освящены. Многие из них представлены в позолоте 999.</t>
-  </si>
-  <si>
     <t>образки казанской Божией матери, интернет-магазин, купить, недорого, доставка, Москва</t>
   </si>
   <si>
@@ -434,17 +420,44 @@
     <t>образки Божией матери, интернет-магазин, купить, недорого, доставка, Москва</t>
   </si>
   <si>
-    <t>В данном разделе представлены именные нательные иконы (образки). По имени на образке изображается образ святого покровителя. Все православные образки являются продуктом ручной работы, выполнены по всем православным канонам и освящены. В изготовлении &lt;a href=" https://vecheria.ru/catalog/pravoslavnye-obrazki"&gt;Православных образков&lt;/a&gt; применяются различные материалы, наиболее популярные из них: серебро 925 и позолота 999. Не менее популярными нательными образками являются &lt;a href=" https://vecheria.ru/catalog/obrazki-bozhey-materi"&gt;Образки Божией Матери&lt;/a&gt;, представленные в различных чудотворных ликах.</t>
-  </si>
-  <si>
     <t>Образки Матроны Московской</t>
+  </si>
+  <si>
+    <t>Православные бусины и шармы для браслетов</t>
+  </si>
+  <si>
+    <t>pravoslavnye-businy-sharmy-dlya-brasletov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В данном разделе представлены самые символичные церковные изделия из всех видов &lt;a href=" https://vecheria.ru/catalog/pravoslavnye-natelnye-krestiki"&gt;Православных нательных крестов&lt;/a&gt; – Голгофские нательные крестики. На лицевой стороне крест украшен растительным орнаментом. На обратной стороне молитвой. Крестики выполнены из серебра 925 пробы, многие из них представлены в позолоте 999. Все православные крестики выполнены по православным канонам и освящены. </t>
+  </si>
+  <si>
+    <t>В данном разделе представлены именные нательные иконы (образки). По имени на образке изображается образ святого покровителя. Все православные образки являются продуктом ручной работы, выполнены по всем православным канонам и освящены. В изготовлении &lt;a href=" https://vecheria.ru/catalog/pravoslavnye-obrazki"&gt;Православных образков&lt;/a&gt; применяются различные материалы, наиболее популярные из них: серебро 925 и позолота 999.</t>
+  </si>
+  <si>
+    <t>В данном разделе представлены нательные образки Богородицы (иконы Божией Матери). Каждый отдельный образок символизирует, известный каждому верующему человеку, чудотворный лик Божией Матери, в том числе: Иверская, Смоленская, &lt;a href=" https://vecheria.ru/catalog/obrazki-kazanskoy-bozhey-materi"&gt;Казанская&lt;/a&gt;, Черниговская, Скоропослушница, Тихвинская, Неупиваемая чаша, &lt;a href=" https://vecheria.ru/catalog/obrazki-kazanskoy-bozhey-materi"&gt;Владимирская&lt;/a&gt;. В их изготовлении применяются серебро 925 и позолота 999. Все изделия освящены.</t>
+  </si>
+  <si>
+    <t>В данном разделе представлены &lt;a href=" https://vecheria.ru/catalog/pravoslavnye-obrazki"&gt;нательные православные образки&lt;/a&gt; с одним из наиболее чтимых святынь в Святыни Православных – Георгия Победоносца. Он олицетворяет собой заступника для верующих. Его божественный лик можно встретить на различных изделиях, в том числе на монетах и иконах. Данный образок станет достойным подарком для любого верующего человека.</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>Православные бусины на гайтан или шнурок</t>
+  </si>
+  <si>
+    <t>pravoslavnye-businy-na-gaytan-shnurok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -455,6 +468,15 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -480,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -489,11 +511,29 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -792,744 +832,788 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="55.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="G14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="2">
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="2">
         <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="2">
         <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="2">
         <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="A29" s="2">
         <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:I27"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
@@ -12,19 +17,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$I$27</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>subcategory</t>
-  </si>
-  <si>
     <t>available</t>
   </si>
   <si>
@@ -451,13 +450,19 @@
   </si>
   <si>
     <t>pravoslavnye-businy-na-gaytan-shnurok</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name_2st</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -832,14 +837,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
@@ -853,755 +858,755 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H23" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H26" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H27" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>

--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Лист2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$I$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
   <si>
     <t>available</t>
   </si>
@@ -456,13 +456,22 @@
   </si>
   <si>
     <t>name_2st</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -482,6 +491,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -507,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -528,6 +546,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -838,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,10 +877,12 @@
     <col min="7" max="7" width="55.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -886,8 +910,14 @@
       <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -912,8 +942,14 @@
       <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -938,8 +974,14 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -964,8 +1006,14 @@
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -993,8 +1041,14 @@
       <c r="I5" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1019,8 +1073,14 @@
       <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1045,8 +1105,14 @@
       <c r="H7" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1074,8 +1140,14 @@
       <c r="I8" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1100,8 +1172,14 @@
       <c r="H9" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1126,8 +1204,14 @@
       <c r="H10" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1152,8 +1236,14 @@
       <c r="H11" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1178,8 +1268,14 @@
       <c r="H12" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1207,8 +1303,14 @@
       <c r="I13" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1236,8 +1338,14 @@
       <c r="I14" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1262,8 +1370,14 @@
       <c r="H15" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1288,8 +1402,14 @@
       <c r="H16" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1314,8 +1434,14 @@
       <c r="H17" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1340,8 +1466,14 @@
       <c r="H18" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1366,8 +1498,14 @@
       <c r="H19" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1392,8 +1530,14 @@
       <c r="H20" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1418,8 +1562,14 @@
       <c r="H21" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1444,8 +1594,14 @@
       <c r="H22" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1470,8 +1626,14 @@
       <c r="H23" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>33</v>
       </c>
@@ -1485,7 +1647,7 @@
         <v>66</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>67</v>
@@ -1496,8 +1658,14 @@
       <c r="H24" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43</v>
       </c>
@@ -1522,8 +1690,14 @@
       <c r="H25" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44</v>
       </c>
@@ -1551,8 +1725,14 @@
       <c r="I26" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45</v>
       </c>
@@ -1577,8 +1757,14 @@
       <c r="H27" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -1594,8 +1780,14 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -1611,10 +1803,16 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
+      <c r="J29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:I27"/>
+  <autoFilter ref="A1:K1"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="154">
   <si>
     <t>available</t>
   </si>
@@ -465,13 +460,34 @@
   </si>
   <si>
     <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>православные бусины, гайтан, шнурок, кожанный</t>
+  </si>
+  <si>
+    <t>православные бусины, шармы, браслет</t>
+  </si>
+  <si>
+    <t>Православные освященные бусины на гайтан или на кожанный шнурок. Гарантия: проба ГИПН на всех изделиях. При покупке 3-х бусин 4-я в подарок!</t>
+  </si>
+  <si>
+    <t>Купить освященные православные бусины и шармы для браслетов в Москве. Гарантия: проба ГИПН на всех изделиях. При покупке 3-х бусин 4-я в подарок!</t>
+  </si>
+  <si>
+    <t>Православные бусины и шармы для браслетов ☀ vecheria.ru</t>
+  </si>
+  <si>
+    <t>Православные бусины на гайтан или шнурок ☀ vecheria.ru</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -859,14 +875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G31" sqref="G31:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
@@ -882,7 +898,7 @@
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -917,7 +933,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -949,7 +965,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -981,7 +997,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1048,7 +1064,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1080,7 +1096,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1112,7 +1128,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1147,7 +1163,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1211,7 +1227,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1243,7 +1259,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1310,7 +1326,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1345,7 +1361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1377,7 +1393,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1409,7 +1425,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1441,7 +1457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1473,7 +1489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1505,7 +1521,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1537,7 +1553,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1569,7 +1585,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1601,7 +1617,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1633,7 +1649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="2">
         <v>33</v>
       </c>
@@ -1665,7 +1681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="2">
         <v>43</v>
       </c>
@@ -1697,7 +1713,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2">
         <v>44</v>
       </c>
@@ -1732,7 +1748,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1">
       <c r="A27" s="2">
         <v>45</v>
       </c>
@@ -1764,7 +1780,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -1780,14 +1796,23 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
+      <c r="F28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="J28" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -1803,12 +1828,27 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
+      <c r="F29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="J29" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>146</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="H32" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Лист2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$K$29</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>available</t>
   </si>
@@ -271,16 +271,7 @@
     <t>Купить освященный серебряный или позолоченный образок Михаила Архангела в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Изделия ручной работы, очень высокого качества. Заказать на сайте или по телефону +7(495)203-96-96.</t>
   </si>
   <si>
-    <t>Образки святых</t>
-  </si>
-  <si>
     <t>obrazki-svyatykh</t>
-  </si>
-  <si>
-    <t>образки святых, интернет-магазин, купить, недорого, доставка, Москва</t>
-  </si>
-  <si>
-    <t>Купить с доставкой недорогие образки святых в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Приятный подарок родным и близким на именины и религиозные праздники. Заказать на сайте или по телефону +7(495)203-96-96.</t>
   </si>
   <si>
     <t>Православные образки</t>
@@ -393,18 +384,12 @@
     <t>образки владимирской Божией матери, интернет-магазин, купить, недорого, доставка, Москва</t>
   </si>
   <si>
-    <t>Купить недорогие образки Божией матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Изделия ручной работы из серебра и позолоты, освященные. Отличный подарок своим близким. Заказать у нас на сайте или по телефону +7(495)203-96-96.</t>
-  </si>
-  <si>
     <t>Купить недорогие образки Казанской Божией матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. Это один из самых популярных образов. Все изделия ручной работы, выполнены из серебра и позолоты. Купить с доставкой по Москве и России можно у нас на сайте и по телефону +7(495)203-96-96.</t>
   </si>
   <si>
     <t>Купить недорого образки Владимирской Божией матери в интернет магазине православных ювелирных изделий ВЕЧЕРИЯ. На обратной стороне изделия есть молитва. Изготовлены из серебра и позолоты, освященные. Заказать можно на нашем сайте или по телефону +7(495)203-96-96.</t>
   </si>
   <si>
-    <t>Образки Божией Матери</t>
-  </si>
-  <si>
     <t>Образки Казанской Божией Матери</t>
   </si>
   <si>
@@ -468,12 +453,6 @@
     <t>православные бусины, шармы, браслет</t>
   </si>
   <si>
-    <t>Православные освященные бусины на гайтан или на кожанный шнурок. Гарантия: проба ГИПН на всех изделиях. При покупке 3-х бусин 4-я в подарок!</t>
-  </si>
-  <si>
-    <t>Купить освященные православные бусины и шармы для браслетов в Москве. Гарантия: проба ГИПН на всех изделиях. При покупке 3-х бусин 4-я в подарок!</t>
-  </si>
-  <si>
     <t>Православные бусины и шармы для браслетов ☀ vecheria.ru</t>
   </si>
   <si>
@@ -481,6 +460,33 @@
   </si>
   <si>
     <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>Купить нательные образки и иконки святых ☀ vecheria.ru</t>
+  </si>
+  <si>
+    <t>✔ Православные освященные бусины на гайтан или на кожанный шнурок. Проба ГИПН на всех изделиях. При покупке 3-х бусин 4-я в подарок!</t>
+  </si>
+  <si>
+    <t>✔ Купить освященные православные бусины и шармы для браслетов в Москве. Проба ГИПН на всех изделиях. При покупке 3-х бусин 4-я в подарок!</t>
+  </si>
+  <si>
+    <t>образки святых, интернет, магазин, недорого, доставка, Москва, иконки, купить, vecheria.ru</t>
+  </si>
+  <si>
+    <t>Нательные образки и иконки святых</t>
+  </si>
+  <si>
+    <t>Купить образок божьей матери | Нательная икона Богородицы ☀ vecheria.ru</t>
+  </si>
+  <si>
+    <t>Нательные образки Божией Матери</t>
+  </si>
+  <si>
+    <t>✔ Купить нательные образки-иконки Божией Матери (Богородицы). Приятный подарок для верующих. Авторская ручная работа. От 680р. Доставка по России.</t>
+  </si>
+  <si>
+    <t>✔ Нательные православные освященные образки и иконки святых покровителей. Авторская ручная работа. От 500р. Доставка по России.</t>
   </si>
 </sst>
 </file>
@@ -876,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:H32"/>
+      <selection activeCell="G33" sqref="G33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -889,7 +895,7 @@
     <col min="3" max="3" width="38.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="55.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
@@ -900,21 +906,21 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -924,13 +930,13 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -949,7 +955,7 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -959,10 +965,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
@@ -981,7 +987,7 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -991,10 +997,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -1013,7 +1019,7 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1023,10 +1029,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -1045,7 +1051,7 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1055,13 +1061,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -1080,7 +1086,7 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1090,10 +1096,10 @@
         <v>33</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -1112,7 +1118,7 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1122,10 +1128,10 @@
         <v>35</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -1136,7 +1142,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
@@ -1144,23 +1150,23 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -1179,7 +1185,7 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1189,10 +1195,10 @@
         <v>43</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -1211,7 +1217,7 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1221,10 +1227,10 @@
         <v>52</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -1243,7 +1249,7 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1253,10 +1259,10 @@
         <v>58</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -1275,7 +1281,7 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1285,10 +1291,10 @@
         <v>60</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -1299,31 +1305,31 @@
         <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>87</v>
+      <c r="F13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s">
+        <v>155</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -1334,7 +1340,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>70</v>
@@ -1342,23 +1348,23 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>124</v>
+      <c r="F14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>154</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
@@ -1369,7 +1375,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>76</v>
@@ -1377,20 +1383,20 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>122</v>
+      <c r="F15" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
@@ -1401,7 +1407,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>77</v>
@@ -1409,20 +1415,20 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="6" t="s">
         <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
@@ -1441,7 +1447,7 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="6" t="s">
         <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1451,10 +1457,10 @@
         <v>80</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -1465,28 +1471,28 @@
         <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -1494,31 +1500,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>95</v>
+      <c r="F19" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -1526,31 +1532,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>101</v>
+      <c r="F20" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -1558,31 +1564,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>107</v>
+      <c r="F21" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -1590,31 +1596,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -1625,28 +1631,28 @@
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H23" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -1665,7 +1671,7 @@
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1675,10 +1681,10 @@
         <v>69</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -1689,7 +1695,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>71</v>
@@ -1697,20 +1703,20 @@
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>123</v>
+      <c r="F25" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -1729,7 +1735,7 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="6" t="s">
         <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1739,13 +1745,13 @@
         <v>72</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -1764,7 +1770,7 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1774,10 +1780,10 @@
         <v>20</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -1788,28 +1794,28 @@
         <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>147</v>
+      <c r="F28" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -1820,28 +1826,28 @@
         <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>148</v>
+      <c r="F29" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1850,9 +1856,20 @@
     <row r="32" spans="1:11">
       <c r="H32" s="2"/>
     </row>
+    <row r="33" spans="7:8">
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="7:8">
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:K29"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/update_db/category.xlsx
+++ b/update_db/category.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="157">
   <si>
     <t>available</t>
   </si>
@@ -487,13 +492,16 @@
   </si>
   <si>
     <t>✔ Нательные православные освященные образки и иконки святых покровителей. Авторская ручная работа. От 500р. Доставка по России.</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -881,14 +889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:H33"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
@@ -904,7 +912,7 @@
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -939,7 +947,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -971,7 +979,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1102,7 +1110,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1134,7 +1142,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1201,7 +1209,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1329,10 +1337,10 @@
         <v>141</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1364,10 +1372,10 @@
         <v>141</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1399,7 +1407,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1463,7 +1471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1495,7 +1503,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>33</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43</v>
       </c>
@@ -1719,7 +1727,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45</v>
       </c>
@@ -1786,7 +1794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -1815,10 +1823,10 @@
         <v>146</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -1847,25 +1855,8 @@
         <v>146</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="7:8">
-      <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="7:8">
-      <c r="G34"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="7:8">
-      <c r="G35"/>
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
